--- a/biology/Botanique/Nyssa_sinensis/Nyssa_sinensis.xlsx
+++ b/biology/Botanique/Nyssa_sinensis/Nyssa_sinensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Nyssa sinensis (Tupelo chinois) est une espèce d'arbre dans la famille des Cornaceae (ou Nyssaceae), native de Chine et du Vietnam[1].
+Nyssa sinensis (Tupelo chinois) est une espèce d'arbre dans la famille des Cornaceae (ou Nyssaceae), native de Chine et du Vietnam.
 </t>
         </is>
       </c>
@@ -512,11 +524,13 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Atteignant 10 m de haut et autant de large, c'est un arbre à feuilles caduques, de silhouette à peu près conique. Ses feuilles ovales mesurent 15 - 20 cm de long, elles deviennent d'un rouge brillant, orange et jaune à l'automne[2],[3].
-Nyssa sinensis est une version plus compacte de son cousin, Nyssa sylvatica (Tupelo noir). Les deux proviennent de zones humides, de marais et affectionnent les marécages[4].
-Le cultivar Jim Russell a obtenu un Award of Garden Merit de la Royal Horticultural Society[5],[6].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Atteignant 10 m de haut et autant de large, c'est un arbre à feuilles caduques, de silhouette à peu près conique. Ses feuilles ovales mesurent 15 - 20 cm de long, elles deviennent d'un rouge brillant, orange et jaune à l'automne,.
+Nyssa sinensis est une version plus compacte de son cousin, Nyssa sylvatica (Tupelo noir). Les deux proviennent de zones humides, de marais et affectionnent les marécages.
+Le cultivar Jim Russell a obtenu un Award of Garden Merit de la Royal Horticultural Society,.
 			Un tronc crevassé.
 			Des fleurs minuscules.
 			Feuillage très coloré à l'automne.
